--- a/Spreadsheets/BVitamins/Riboflavin.xlsx
+++ b/Spreadsheets/BVitamins/Riboflavin.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27106"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seaver/Projects/PlantSEED_Repo/Spreadsheets/BVitamins/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +19,9 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -208,7 +216,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,6 +255,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -583,7 +595,7 @@
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -599,7 +611,7 @@
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -666,7 +678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -689,7 +701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -715,7 +727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -738,7 +750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -761,7 +773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -784,7 +796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -807,7 +819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -830,7 +842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -853,7 +865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -873,7 +885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -893,7 +905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -907,7 +919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -930,7 +942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -956,7 +968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -979,7 +991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1005,7 +1017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1">
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1025,7 +1037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1051,7 +1063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1064,10 +1076,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>